--- a/public/UserData/Book1.xlsx
+++ b/public/UserData/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isnae\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0824E5E-2EA0-403B-934A-73365A51C95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09E3103-2C67-471A-B572-CEB864964A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D5B307D4-4CF9-41BD-AC76-F45C0B6E2168}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>abdan</t>
   </si>
@@ -36,7 +36,19 @@
     <t>admin123</t>
   </si>
   <si>
-    <t>admin</t>
+    <t>KRY-002</t>
+  </si>
+  <si>
+    <t>KRY-003</t>
+  </si>
+  <si>
+    <t>abdan4@gmail.com</t>
+  </si>
+  <si>
+    <t>PNS-001</t>
+  </si>
+  <si>
+    <t>abdan2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -407,17 +419,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377C288A-B054-4D68-A1D2-42FD52678943}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>210202083</v>
+      <c r="A1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -428,13 +440,41 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" xr:uid="{CB8C3BAC-D00C-4B3A-9B8F-11EB358FDAAA}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{6E610A31-B503-439C-91C9-A73E23219765}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{6ED26201-1E48-4DAF-AAF9-BC26ED7C4EAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
